--- a/_docs_readme/benchmarking_structure.xlsx
+++ b/_docs_readme/benchmarking_structure.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FilipaGomes/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FilipaGomes/Documents/GitHub/home4us-store/_docs_readme/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F59900A-C01B-7944-ABAA-67EF5BAC4A12}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="XyQuPhx+YfJBKT4eA5URajcPWlaFMIEuzClqdd85rqVo3z2EiwunwjJdSxwfVBzd0SgarINrMr0W/bXXtNTTtQ==" workbookSaltValue="G+wngPROzRrLHw41qbt7tw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28380" windowHeight="17220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28380" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmarking" sheetId="2" r:id="rId1"/>
     <sheet name="Pontos fortes e fracos" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="306">
   <si>
     <t>FEATURE</t>
   </si>
@@ -432,9 +434,6 @@
     <t>Perguntas Prequentes</t>
   </si>
   <si>
-    <t>BenchMarking</t>
-  </si>
-  <si>
     <t>À mesa</t>
   </si>
   <si>
@@ -894,9 +893,6 @@
     <t>• Corpo do texto demasiado pequeno com entrelinha apertada e pouco espaço entre parágrafos;</t>
   </si>
   <si>
-    <t>• Apresenta o acesso à gestão da conta do cliente na “utility nav” sem o utilizador ter efectuado o “login”;</t>
-  </si>
-  <si>
     <t>• Consulta de produtos adicionados ao carrinho de compras obriga o utilizador a mudar de página. Só é possível voltar à página onde estava através do “back button” do browser (a opção de “continue shopping” leva o utilizador sempre para a homepage).</t>
   </si>
   <si>
@@ -909,12 +905,6 @@
     <t>• Link para subscrição da newsletter pouco visível;</t>
   </si>
   <si>
-    <t>• Website não é responsive;</t>
-  </si>
-  <si>
-    <t>• Na página de detalhe de produto, apresenta alguns blocos de texto demasiado extensos;</t>
-  </si>
-  <si>
     <t>Pontos fortes e Pontos fracos</t>
   </si>
   <si>
@@ -922,13 +912,46 @@
   </si>
   <si>
     <t>Secções da Homepage</t>
+  </si>
+  <si>
+    <t>Benchmarking</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://www.zarahome.com/pt/</t>
+  </si>
+  <si>
+    <t>https://www.lojavivaonline.com/</t>
+  </si>
+  <si>
+    <t>https://www.loja.inexistencia.com/</t>
+  </si>
+  <si>
+    <t>https://www.firebox.com/</t>
+  </si>
+  <si>
+    <t>http://www.avidaportuguesa.com/</t>
+  </si>
+  <si>
+    <t>http://www.mimocook.com/</t>
+  </si>
+  <si>
+    <t>• Apresenta o acesso à gestão da conta do cliente na “utility nav” sem o utilizador ter efectuado o “login”.</t>
+  </si>
+  <si>
+    <t>• Website não é responsive.</t>
+  </si>
+  <si>
+    <t>• Na página de detalhe de produto, apresenta alguns blocos de texto demasiado extensos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -985,8 +1008,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,12 +1030,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1017,8 +1040,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1236,10 +1277,92 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
       <right/>
       <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1253,7 +1376,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1268,18 +1391,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1323,50 +1434,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1385,6 +1472,117 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1460,6 +1658,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFCCCCCC"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1477,20 +1678,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:colOff>1660525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>647488</xdr:rowOff>
+      <xdr:rowOff>710988</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1510,7 +1716,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3248025" y="190500"/>
+          <a:off x="4432300" y="495300"/>
           <a:ext cx="1266825" cy="647488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1523,20 +1729,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:rowOff>273049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1554740</xdr:colOff>
+      <xdr:colOff>1872240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>466724</xdr:rowOff>
+      <xdr:rowOff>530224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1556,7 +1767,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524375" y="400049"/>
+          <a:off x="6781800" y="704849"/>
           <a:ext cx="1554740" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1569,20 +1780,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1041716</xdr:colOff>
+      <xdr:colOff>1667398</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>342898</xdr:rowOff>
+      <xdr:rowOff>584200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Picture 9">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1602,8 +1818,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="381000"/>
-          <a:ext cx="1041716" cy="342898"/>
+          <a:off x="11722100" y="584200"/>
+          <a:ext cx="1311798" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1615,27 +1831,32 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>629542</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>64467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>990000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>20475</xdr:rowOff>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>711201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="Picture 11" descr="MIMOCOOK">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1649,8 +1870,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12087225" y="419100"/>
-          <a:ext cx="990000" cy="792000"/>
+          <a:off x="14447142" y="496267"/>
+          <a:ext cx="818258" cy="646734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1672,20 +1893,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>203201</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>349284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:colOff>1866901</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="Picture 14">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1705,8 +1931,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1447800" y="381000"/>
-          <a:ext cx="1762125" cy="114300"/>
+          <a:off x="1854201" y="895384"/>
+          <a:ext cx="1663700" cy="107916"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,21 +1948,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>761860</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>756000</xdr:rowOff>
+      <xdr:rowOff>438116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="17" name="Picture 16">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC41FDE-9FD3-EC4D-A9B3-E9CC788A06F5}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1756,8 +1987,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4867281" y="161925"/>
-          <a:ext cx="761854" cy="756000"/>
+          <a:off x="2057400" y="495300"/>
+          <a:ext cx="1663700" cy="107916"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1768,21 +1999,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1024914</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1660525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>749549</xdr:rowOff>
+      <xdr:rowOff>710988</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="18" name="Picture 17">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7353F8A-AF79-4649-AA8E-E02D4D98D204}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1802,8 +2038,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7324725" y="371474"/>
-          <a:ext cx="1024914" cy="540000"/>
+          <a:off x="4432300" y="609600"/>
+          <a:ext cx="1266825" cy="647488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1814,28 +2050,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>273049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>787442</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1872240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>720000</xdr:rowOff>
+      <xdr:rowOff>530224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60CC8B0-1C2C-3B48-A277-A115B08D36D8}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1848,8 +2089,59 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12239626" y="161925"/>
-          <a:ext cx="787441" cy="720000"/>
+          <a:off x="6781800" y="819149"/>
+          <a:ext cx="1554740" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1667398</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>584200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB8AD93-C97B-1946-8BD9-E91969EF63A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11722100" y="698500"/>
+          <a:ext cx="1311798" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1861,27 +2153,32 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>629542</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>64467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>523158</xdr:colOff>
+      <xdr:colOff>1447800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>756000</xdr:rowOff>
+      <xdr:rowOff>711201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="MIMOCOOK">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        <xdr:cNvPr id="22" name="Picture 21" descr="MIMOCOOK">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034E9A5C-299E-A54C-B8D6-A3E93927E407}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1895,8 +2192,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14697076" y="161925"/>
-          <a:ext cx="523157" cy="756000"/>
+          <a:off x="14447142" y="610567"/>
+          <a:ext cx="818258" cy="646734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1911,52 +2208,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1762125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1447800" y="419100"/>
-          <a:ext cx="1762125" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3067,17 +3318,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:IY102"/>
+  <dimension ref="A2:IY103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -3086,2468 +3337,2788 @@
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="27" style="1" customWidth="1"/>
     <col min="13" max="259" width="16.33203125" style="1" customWidth="1"/>
     <col min="260" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:259" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:259" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+    </row>
+    <row r="4" spans="1:259" s="50" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="A4" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="49"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="49"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="49"/>
+      <c r="BY4" s="49"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="49"/>
+      <c r="CD4" s="49"/>
+      <c r="CE4" s="49"/>
+      <c r="CF4" s="49"/>
+      <c r="CG4" s="49"/>
+      <c r="CH4" s="49"/>
+      <c r="CI4" s="49"/>
+      <c r="CJ4" s="49"/>
+      <c r="CK4" s="49"/>
+      <c r="CL4" s="49"/>
+      <c r="CM4" s="49"/>
+      <c r="CN4" s="49"/>
+      <c r="CO4" s="49"/>
+      <c r="CP4" s="49"/>
+      <c r="CQ4" s="49"/>
+      <c r="CR4" s="49"/>
+      <c r="CS4" s="49"/>
+      <c r="CT4" s="49"/>
+      <c r="CU4" s="49"/>
+      <c r="CV4" s="49"/>
+      <c r="CW4" s="49"/>
+      <c r="CX4" s="49"/>
+      <c r="CY4" s="49"/>
+      <c r="CZ4" s="49"/>
+      <c r="DA4" s="49"/>
+      <c r="DB4" s="49"/>
+      <c r="DC4" s="49"/>
+      <c r="DD4" s="49"/>
+      <c r="DE4" s="49"/>
+      <c r="DF4" s="49"/>
+      <c r="DG4" s="49"/>
+      <c r="DH4" s="49"/>
+      <c r="DI4" s="49"/>
+      <c r="DJ4" s="49"/>
+      <c r="DK4" s="49"/>
+      <c r="DL4" s="49"/>
+      <c r="DM4" s="49"/>
+      <c r="DN4" s="49"/>
+      <c r="DO4" s="49"/>
+      <c r="DP4" s="49"/>
+      <c r="DQ4" s="49"/>
+      <c r="DR4" s="49"/>
+      <c r="DS4" s="49"/>
+      <c r="DT4" s="49"/>
+      <c r="DU4" s="49"/>
+      <c r="DV4" s="49"/>
+      <c r="DW4" s="49"/>
+      <c r="DX4" s="49"/>
+      <c r="DY4" s="49"/>
+      <c r="DZ4" s="49"/>
+      <c r="EA4" s="49"/>
+      <c r="EB4" s="49"/>
+      <c r="EC4" s="49"/>
+      <c r="ED4" s="49"/>
+      <c r="EE4" s="49"/>
+      <c r="EF4" s="49"/>
+      <c r="EG4" s="49"/>
+      <c r="EH4" s="49"/>
+      <c r="EI4" s="49"/>
+      <c r="EJ4" s="49"/>
+      <c r="EK4" s="49"/>
+      <c r="EL4" s="49"/>
+      <c r="EM4" s="49"/>
+      <c r="EN4" s="49"/>
+      <c r="EO4" s="49"/>
+      <c r="EP4" s="49"/>
+      <c r="EQ4" s="49"/>
+      <c r="ER4" s="49"/>
+      <c r="ES4" s="49"/>
+      <c r="ET4" s="49"/>
+      <c r="EU4" s="49"/>
+      <c r="EV4" s="49"/>
+      <c r="EW4" s="49"/>
+      <c r="EX4" s="49"/>
+      <c r="EY4" s="49"/>
+      <c r="EZ4" s="49"/>
+      <c r="FA4" s="49"/>
+      <c r="FB4" s="49"/>
+      <c r="FC4" s="49"/>
+      <c r="FD4" s="49"/>
+      <c r="FE4" s="49"/>
+      <c r="FF4" s="49"/>
+      <c r="FG4" s="49"/>
+      <c r="FH4" s="49"/>
+      <c r="FI4" s="49"/>
+      <c r="FJ4" s="49"/>
+      <c r="FK4" s="49"/>
+      <c r="FL4" s="49"/>
+      <c r="FM4" s="49"/>
+      <c r="FN4" s="49"/>
+      <c r="FO4" s="49"/>
+      <c r="FP4" s="49"/>
+      <c r="FQ4" s="49"/>
+      <c r="FR4" s="49"/>
+      <c r="FS4" s="49"/>
+      <c r="FT4" s="49"/>
+      <c r="FU4" s="49"/>
+      <c r="FV4" s="49"/>
+      <c r="FW4" s="49"/>
+      <c r="FX4" s="49"/>
+      <c r="FY4" s="49"/>
+      <c r="FZ4" s="49"/>
+      <c r="GA4" s="49"/>
+      <c r="GB4" s="49"/>
+      <c r="GC4" s="49"/>
+      <c r="GD4" s="49"/>
+      <c r="GE4" s="49"/>
+      <c r="GF4" s="49"/>
+      <c r="GG4" s="49"/>
+      <c r="GH4" s="49"/>
+      <c r="GI4" s="49"/>
+      <c r="GJ4" s="49"/>
+      <c r="GK4" s="49"/>
+      <c r="GL4" s="49"/>
+      <c r="GM4" s="49"/>
+      <c r="GN4" s="49"/>
+      <c r="GO4" s="49"/>
+      <c r="GP4" s="49"/>
+      <c r="GQ4" s="49"/>
+      <c r="GR4" s="49"/>
+      <c r="GS4" s="49"/>
+      <c r="GT4" s="49"/>
+      <c r="GU4" s="49"/>
+      <c r="GV4" s="49"/>
+      <c r="GW4" s="49"/>
+      <c r="GX4" s="49"/>
+      <c r="GY4" s="49"/>
+      <c r="GZ4" s="49"/>
+      <c r="HA4" s="49"/>
+      <c r="HB4" s="49"/>
+      <c r="HC4" s="49"/>
+      <c r="HD4" s="49"/>
+      <c r="HE4" s="49"/>
+      <c r="HF4" s="49"/>
+      <c r="HG4" s="49"/>
+      <c r="HH4" s="49"/>
+      <c r="HI4" s="49"/>
+      <c r="HJ4" s="49"/>
+      <c r="HK4" s="49"/>
+      <c r="HL4" s="49"/>
+      <c r="HM4" s="49"/>
+      <c r="HN4" s="49"/>
+      <c r="HO4" s="49"/>
+      <c r="HP4" s="49"/>
+      <c r="HQ4" s="49"/>
+      <c r="HR4" s="49"/>
+      <c r="HS4" s="49"/>
+      <c r="HT4" s="49"/>
+      <c r="HU4" s="49"/>
+      <c r="HV4" s="49"/>
+      <c r="HW4" s="49"/>
+      <c r="HX4" s="49"/>
+      <c r="HY4" s="49"/>
+      <c r="HZ4" s="49"/>
+      <c r="IA4" s="49"/>
+      <c r="IB4" s="49"/>
+      <c r="IC4" s="49"/>
+      <c r="ID4" s="49"/>
+      <c r="IE4" s="49"/>
+      <c r="IF4" s="49"/>
+      <c r="IG4" s="49"/>
+      <c r="IH4" s="49"/>
+      <c r="II4" s="49"/>
+      <c r="IJ4" s="49"/>
+      <c r="IK4" s="49"/>
+      <c r="IL4" s="49"/>
+      <c r="IM4" s="49"/>
+      <c r="IN4" s="49"/>
+      <c r="IO4" s="49"/>
+      <c r="IP4" s="49"/>
+      <c r="IQ4" s="49"/>
+      <c r="IR4" s="49"/>
+      <c r="IS4" s="49"/>
+      <c r="IT4" s="49"/>
+      <c r="IU4" s="49"/>
+      <c r="IV4" s="49"/>
+      <c r="IW4" s="49"/>
+      <c r="IX4" s="49"/>
+      <c r="IY4" s="49"/>
+    </row>
+    <row r="5" spans="1:259" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:259" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="11" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:259" ht="32" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B7" s="27">
         <v>20</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="38">
+      <c r="C7" s="28"/>
+      <c r="D7" s="26">
         <v>10</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26">
         <v>16</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26">
         <v>5</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26">
         <v>7</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:259" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="12" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:259" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:259" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:259" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="11" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:259" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:259" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:259" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:259" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:259" ht="32" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="48" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="25"/>
+      <c r="L40" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A49" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" s="27">
+        <v>4</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="26">
+        <v>8</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="26">
+        <v>5</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="26">
+        <v>7</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="96" x14ac:dyDescent="0.15">
+      <c r="A50" s="12"/>
+      <c r="B50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="12"/>
+      <c r="B51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="12" t="s">
+      <c r="C51" s="15"/>
+      <c r="D51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="12"/>
+      <c r="B52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A53" s="12"/>
+      <c r="B53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11" t="s">
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="12"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="12"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11" t="s">
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="12"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="12"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="12"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" s="7"/>
+      <c r="L70" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A77" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="80" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="48" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A88" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A89" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="29">
+        <v>6</v>
+      </c>
+      <c r="C91" s="30"/>
+      <c r="D91" s="26">
+        <v>10</v>
+      </c>
+      <c r="E91" s="26"/>
+      <c r="F91" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31">
+        <v>7</v>
+      </c>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="80" x14ac:dyDescent="0.15">
+      <c r="A92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="80" x14ac:dyDescent="0.15">
+      <c r="A93" s="5"/>
+      <c r="B93" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="16"/>
+      <c r="D93" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="64" x14ac:dyDescent="0.15">
+      <c r="A94" s="5"/>
+      <c r="B94" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K94" s="7"/>
+      <c r="L94" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="32" x14ac:dyDescent="0.15">
+      <c r="A95" s="5"/>
+      <c r="B95" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:13" ht="32" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A48" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="B48" s="39">
-        <v>4</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="38">
-        <v>8</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="38">
-        <v>5</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="38">
-        <v>7</v>
-      </c>
-      <c r="K48" s="11"/>
-      <c r="L48" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="96" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="16"/>
-      <c r="B51" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A58" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K69" s="11"/>
-      <c r="L69" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A70" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A74" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A75" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A76" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A77" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="64" x14ac:dyDescent="0.15">
-      <c r="A79" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A80" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A81" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A82" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-    </row>
-    <row r="83" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A83" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A84" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A85" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A86" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A87" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A88" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A89" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A90" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B90" s="41">
-        <v>6</v>
-      </c>
-      <c r="C90" s="42"/>
-      <c r="D90" s="38">
-        <v>10</v>
-      </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43">
-        <v>7</v>
-      </c>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="80" x14ac:dyDescent="0.15">
-      <c r="A91" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="80" x14ac:dyDescent="0.15">
-      <c r="A92" s="9"/>
-      <c r="B92" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="64" x14ac:dyDescent="0.15">
-      <c r="A93" s="9"/>
-      <c r="B93" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G93" s="11"/>
-      <c r="H93" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I93" s="12"/>
-      <c r="J93" s="11" t="s">
+      <c r="G95" s="8"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K93" s="11"/>
-      <c r="L93" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="32" x14ac:dyDescent="0.15">
-      <c r="A94" s="9"/>
-      <c r="B94" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" s="20"/>
-      <c r="D94" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11" t="s">
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A95" s="9"/>
-      <c r="B95" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E95" s="11"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11" t="s">
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+      <c r="B97" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A96" s="9"/>
-      <c r="B96" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E96" s="11"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11" t="s">
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A98" s="5"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A97" s="9"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A98" s="24"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="19" t="s">
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A99" s="19"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="19"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A99" s="9"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="19" t="s">
+      <c r="E99" s="15"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100" s="5"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A100" s="9"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="19" t="s">
+      <c r="E100" s="15"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101" s="5"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A101" s="9"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="20"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A102" s="9"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103" s="5"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="sOw7FcVI49ZV/dYbty955aVaUJQtKOpBoxFyweTmg8kspJHN5u6gXqPSboXkeUoyzvOpbvRhPZJ9i1WAp0lFww==" saltValue="ec9TsS89kUbApJ2rpmWjaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{D7536304-36FE-7749-96D6-D4AAC79101A0}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{C107619D-E8D1-3B43-BF5D-EFBBF9427354}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{BADDB483-07EF-9847-8BE2-F95FEFD33BCA}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{55931E75-151B-1C49-9834-95B6EF7F2AF2}"/>
+    <hyperlink ref="J4" r:id="rId6" xr:uid="{5781092C-4404-1444-ACA6-F5F947050539}"/>
+    <hyperlink ref="L4" r:id="rId7" xr:uid="{E9A10BF5-E78E-2B4D-AADE-AA762ED05990}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:JA32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:JA33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5568,24 +6139,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:261" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="26" t="s">
+      <c r="A2" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="17"/>
-      <c r="M2"/>
-      <c r="N2" s="23"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -5834,488 +6405,752 @@
       <c r="IZ2" s="1"/>
       <c r="JA2" s="1"/>
     </row>
-    <row r="3" spans="1:261" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:261" s="68" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67"/>
+      <c r="BJ3" s="67"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
+      <c r="BR3" s="67"/>
+      <c r="BS3" s="67"/>
+      <c r="BT3" s="67"/>
+      <c r="BU3" s="67"/>
+      <c r="BV3" s="67"/>
+      <c r="BW3" s="67"/>
+      <c r="BX3" s="67"/>
+      <c r="BY3" s="67"/>
+      <c r="BZ3" s="67"/>
+      <c r="CA3" s="67"/>
+      <c r="CB3" s="67"/>
+      <c r="CC3" s="67"/>
+      <c r="CD3" s="67"/>
+      <c r="CE3" s="67"/>
+      <c r="CF3" s="67"/>
+      <c r="CG3" s="67"/>
+      <c r="CH3" s="67"/>
+      <c r="CI3" s="67"/>
+      <c r="CJ3" s="67"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="67"/>
+      <c r="CM3" s="67"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="67"/>
+      <c r="CU3" s="67"/>
+      <c r="CV3" s="67"/>
+      <c r="CW3" s="67"/>
+      <c r="CX3" s="67"/>
+      <c r="CY3" s="67"/>
+      <c r="CZ3" s="67"/>
+      <c r="DA3" s="67"/>
+      <c r="DB3" s="67"/>
+      <c r="DC3" s="67"/>
+      <c r="DD3" s="67"/>
+      <c r="DE3" s="67"/>
+      <c r="DF3" s="67"/>
+      <c r="DG3" s="67"/>
+      <c r="DH3" s="67"/>
+      <c r="DI3" s="67"/>
+      <c r="DJ3" s="67"/>
+      <c r="DK3" s="67"/>
+      <c r="DL3" s="67"/>
+      <c r="DM3" s="67"/>
+      <c r="DN3" s="67"/>
+      <c r="DO3" s="67"/>
+      <c r="DP3" s="67"/>
+      <c r="DQ3" s="67"/>
+      <c r="DR3" s="67"/>
+      <c r="DS3" s="67"/>
+      <c r="DT3" s="67"/>
+      <c r="DU3" s="67"/>
+      <c r="DV3" s="67"/>
+      <c r="DW3" s="67"/>
+      <c r="DX3" s="67"/>
+      <c r="DY3" s="67"/>
+      <c r="DZ3" s="67"/>
+      <c r="EA3" s="67"/>
+      <c r="EB3" s="67"/>
+      <c r="EC3" s="67"/>
+      <c r="ED3" s="67"/>
+      <c r="EE3" s="67"/>
+      <c r="EF3" s="67"/>
+      <c r="EG3" s="67"/>
+      <c r="EH3" s="67"/>
+      <c r="EI3" s="67"/>
+      <c r="EJ3" s="67"/>
+      <c r="EK3" s="67"/>
+      <c r="EL3" s="67"/>
+      <c r="EM3" s="67"/>
+      <c r="EN3" s="67"/>
+      <c r="EO3" s="67"/>
+      <c r="EP3" s="67"/>
+      <c r="EQ3" s="67"/>
+      <c r="ER3" s="67"/>
+      <c r="ES3" s="67"/>
+      <c r="ET3" s="67"/>
+      <c r="EU3" s="67"/>
+      <c r="EV3" s="67"/>
+      <c r="EW3" s="67"/>
+      <c r="EX3" s="67"/>
+      <c r="EY3" s="67"/>
+      <c r="EZ3" s="67"/>
+      <c r="FA3" s="67"/>
+      <c r="FB3" s="67"/>
+      <c r="FC3" s="67"/>
+      <c r="FD3" s="67"/>
+      <c r="FE3" s="67"/>
+      <c r="FF3" s="67"/>
+      <c r="FG3" s="67"/>
+      <c r="FH3" s="67"/>
+      <c r="FI3" s="67"/>
+      <c r="FJ3" s="67"/>
+      <c r="FK3" s="67"/>
+      <c r="FL3" s="67"/>
+      <c r="FM3" s="67"/>
+      <c r="FN3" s="67"/>
+      <c r="FO3" s="67"/>
+      <c r="FP3" s="67"/>
+      <c r="FQ3" s="67"/>
+      <c r="FR3" s="67"/>
+      <c r="FS3" s="67"/>
+      <c r="FT3" s="67"/>
+      <c r="FU3" s="67"/>
+      <c r="FV3" s="67"/>
+      <c r="FW3" s="67"/>
+      <c r="FX3" s="67"/>
+      <c r="FY3" s="67"/>
+      <c r="FZ3" s="67"/>
+      <c r="GA3" s="67"/>
+      <c r="GB3" s="67"/>
+      <c r="GC3" s="67"/>
+      <c r="GD3" s="67"/>
+      <c r="GE3" s="67"/>
+      <c r="GF3" s="67"/>
+      <c r="GG3" s="67"/>
+      <c r="GH3" s="67"/>
+      <c r="GI3" s="67"/>
+      <c r="GJ3" s="67"/>
+      <c r="GK3" s="67"/>
+      <c r="GL3" s="67"/>
+      <c r="GM3" s="67"/>
+      <c r="GN3" s="67"/>
+      <c r="GO3" s="67"/>
+      <c r="GP3" s="67"/>
+      <c r="GQ3" s="67"/>
+      <c r="GR3" s="67"/>
+      <c r="GS3" s="67"/>
+      <c r="GT3" s="67"/>
+      <c r="GU3" s="67"/>
+      <c r="GV3" s="67"/>
+      <c r="GW3" s="67"/>
+      <c r="GX3" s="67"/>
+      <c r="GY3" s="67"/>
+      <c r="GZ3" s="67"/>
+      <c r="HA3" s="67"/>
+      <c r="HB3" s="67"/>
+      <c r="HC3" s="67"/>
+      <c r="HD3" s="67"/>
+      <c r="HE3" s="67"/>
+      <c r="HF3" s="67"/>
+      <c r="HG3" s="67"/>
+      <c r="HH3" s="67"/>
+      <c r="HI3" s="67"/>
+      <c r="HJ3" s="67"/>
+      <c r="HK3" s="67"/>
+      <c r="HL3" s="67"/>
+      <c r="HM3" s="67"/>
+      <c r="HN3" s="67"/>
+      <c r="HO3" s="67"/>
+      <c r="HP3" s="67"/>
+      <c r="HQ3" s="67"/>
+      <c r="HR3" s="67"/>
+      <c r="HS3" s="67"/>
+      <c r="HT3" s="67"/>
+      <c r="HU3" s="67"/>
+      <c r="HV3" s="67"/>
+      <c r="HW3" s="67"/>
+      <c r="HX3" s="67"/>
+      <c r="HY3" s="67"/>
+      <c r="HZ3" s="67"/>
+      <c r="IA3" s="67"/>
+      <c r="IB3" s="67"/>
+      <c r="IC3" s="67"/>
+      <c r="ID3" s="67"/>
+      <c r="IE3" s="67"/>
+      <c r="IF3" s="67"/>
+      <c r="IG3" s="67"/>
+      <c r="IH3" s="67"/>
+      <c r="II3" s="67"/>
+      <c r="IJ3" s="67"/>
+      <c r="IK3" s="67"/>
+      <c r="IL3" s="67"/>
+      <c r="IM3" s="67"/>
+      <c r="IN3" s="67"/>
+      <c r="IO3" s="67"/>
+      <c r="IP3" s="67"/>
+      <c r="IQ3" s="67"/>
+      <c r="IR3" s="67"/>
+      <c r="IS3" s="67"/>
+      <c r="IT3" s="67"/>
+      <c r="IU3" s="67"/>
+      <c r="IV3" s="67"/>
+      <c r="IW3" s="67"/>
+      <c r="IX3" s="67"/>
+      <c r="IY3" s="67"/>
+      <c r="IZ3" s="67"/>
+      <c r="JA3" s="67"/>
+    </row>
+    <row r="4" spans="1:261" x14ac:dyDescent="0.15">
+      <c r="A4" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
         <v>197</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:261" ht="78" x14ac:dyDescent="0.15">
+      <c r="A5" s="53"/>
+      <c r="C5" t="s">
         <v>198</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>198</v>
       </c>
-      <c r="G3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" t="s">
-        <v>198</v>
-      </c>
-      <c r="M3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:261" ht="78" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="C4" t="s">
+      <c r="G5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:261" ht="78" x14ac:dyDescent="0.15">
+      <c r="A6" s="53"/>
+      <c r="C6" t="s">
         <v>199</v>
       </c>
-      <c r="E4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" t="s">
         <v>222</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I6" t="s">
         <v>235</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K6" t="s">
         <v>251</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:261" ht="65" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="C5" t="s">
+    <row r="7" spans="1:261" ht="52" x14ac:dyDescent="0.15">
+      <c r="A7" s="53"/>
+      <c r="C7" t="s">
         <v>200</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:261" ht="52" x14ac:dyDescent="0.15">
+      <c r="A8" s="53"/>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:261" ht="52" x14ac:dyDescent="0.15">
+      <c r="A9" s="53"/>
+      <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" t="s">
         <v>211</v>
       </c>
-      <c r="G5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" t="s">
-        <v>236</v>
-      </c>
-      <c r="K5" t="s">
-        <v>252</v>
-      </c>
-      <c r="M5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:261" ht="52" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="C6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" t="s">
+        <v>254</v>
+      </c>
+      <c r="M9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:261" ht="39" x14ac:dyDescent="0.15">
+      <c r="A10" s="53"/>
+      <c r="C10" t="s">
         <v>203</v>
       </c>
-      <c r="G6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K6" t="s">
-        <v>253</v>
-      </c>
-      <c r="M6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:261" ht="52" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="C7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" t="s">
+        <v>227</v>
+      </c>
+      <c r="M10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:261" ht="52" x14ac:dyDescent="0.15">
+      <c r="A11" s="53"/>
+      <c r="C11" t="s">
         <v>204</v>
       </c>
-      <c r="G7" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:261" ht="52" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="C8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E11" t="s">
         <v>212</v>
       </c>
-      <c r="G8" t="s">
-        <v>226</v>
-      </c>
-      <c r="I8" t="s">
-        <v>239</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="G11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" t="s">
         <v>255</v>
       </c>
-      <c r="M8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:261" ht="39" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="C9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="M11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:261" ht="39" x14ac:dyDescent="0.15">
+      <c r="A12" s="53"/>
+      <c r="C12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" t="s">
+        <v>256</v>
+      </c>
+      <c r="M12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:261" ht="78" x14ac:dyDescent="0.15">
+      <c r="A13" s="53"/>
+      <c r="C13" t="s">
         <v>206</v>
       </c>
-      <c r="G9" t="s">
-        <v>227</v>
-      </c>
-      <c r="I9" t="s">
-        <v>240</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="E13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" t="s">
         <v>228</v>
       </c>
-      <c r="M9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:261" ht="52" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="C10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" t="s">
-        <v>256</v>
-      </c>
-      <c r="M10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:261" ht="39" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
-      <c r="C11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" t="s">
-        <v>214</v>
-      </c>
-      <c r="G11" t="s">
-        <v>228</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="I13" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" t="s">
+        <v>257</v>
+      </c>
+      <c r="M13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:261" ht="39" x14ac:dyDescent="0.15">
+      <c r="A14" s="53"/>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" t="s">
+        <v>258</v>
+      </c>
+      <c r="M14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:261" ht="65" x14ac:dyDescent="0.15">
+      <c r="A15" s="53"/>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" t="s">
         <v>242</v>
       </c>
-      <c r="K11" t="s">
-        <v>257</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="K15" t="s">
+        <v>245</v>
+      </c>
+      <c r="M15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:261" ht="65" x14ac:dyDescent="0.15">
+      <c r="A16" s="53"/>
+      <c r="C16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16" t="s">
+        <v>243</v>
+      </c>
+      <c r="K16" t="s">
+        <v>259</v>
+      </c>
+      <c r="M16" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:261" ht="78" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
-      <c r="C12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" t="s">
-        <v>229</v>
-      </c>
-      <c r="I12" t="s">
-        <v>230</v>
-      </c>
-      <c r="K12" t="s">
-        <v>258</v>
-      </c>
-      <c r="M12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:261" ht="39" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
-      <c r="C13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K13" t="s">
+    <row r="17" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="A17" s="53"/>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17" t="s">
+        <v>244</v>
+      </c>
+      <c r="K17" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="A18" s="53"/>
+      <c r="E18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" t="s">
+        <v>233</v>
+      </c>
+      <c r="I18" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A19" s="53"/>
+      <c r="I19" t="s">
+        <v>246</v>
+      </c>
+      <c r="M19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="65" x14ac:dyDescent="0.15">
+      <c r="A20" s="53"/>
+      <c r="I20" t="s">
+        <v>247</v>
+      </c>
+      <c r="M20" t="s">
         <v>259</v>
       </c>
-      <c r="M13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:261" ht="65" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
-      <c r="C14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" t="s">
-        <v>231</v>
-      </c>
-      <c r="I14" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" t="s">
-        <v>246</v>
-      </c>
-      <c r="M14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:261" ht="52" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="C15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" t="s">
-        <v>219</v>
-      </c>
-      <c r="G15" t="s">
-        <v>232</v>
-      </c>
-      <c r="I15" t="s">
-        <v>244</v>
-      </c>
-      <c r="K15" t="s">
-        <v>260</v>
-      </c>
-      <c r="M15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:261" ht="39" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
-      <c r="C16" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="21" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A21" s="53"/>
+      <c r="I21" t="s">
+        <v>248</v>
+      </c>
+      <c r="M21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A22" s="53"/>
+      <c r="I22" t="s">
+        <v>249</v>
+      </c>
+      <c r="M22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="53"/>
+      <c r="M23" t="s">
         <v>233</v>
       </c>
-      <c r="I16" t="s">
-        <v>245</v>
-      </c>
-      <c r="K16" t="s">
-        <v>234</v>
-      </c>
-      <c r="M16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A17" s="36"/>
-      <c r="E17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" t="s">
-        <v>234</v>
-      </c>
-      <c r="I17" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A18" s="36"/>
-      <c r="I18" t="s">
-        <v>247</v>
-      </c>
-      <c r="M18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A19" s="36"/>
-      <c r="I19" t="s">
-        <v>248</v>
-      </c>
-      <c r="M19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
-      <c r="I20" t="s">
-        <v>249</v>
-      </c>
-      <c r="M20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
-      <c r="I21" t="s">
-        <v>250</v>
-      </c>
-      <c r="M21" t="s">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+    </row>
+    <row r="25" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A25" s="54" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="36"/>
-      <c r="M22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-    </row>
-    <row r="24" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A24" s="37" t="s">
+      <c r="C25" t="s">
         <v>274</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" t="s">
+        <v>280</v>
+      </c>
+      <c r="I25" t="s">
+        <v>287</v>
+      </c>
+      <c r="K25" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="117" x14ac:dyDescent="0.15">
+      <c r="A26" s="54"/>
+      <c r="C26" t="s">
         <v>275</v>
       </c>
-      <c r="E24" t="s">
-        <v>275</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="E26" t="s">
+        <v>277</v>
+      </c>
+      <c r="G26" t="s">
         <v>281</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I26" t="s">
         <v>288</v>
       </c>
-      <c r="K24" t="s">
-        <v>281</v>
-      </c>
-      <c r="M24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="104" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="C25" t="s">
+      <c r="K26" t="s">
+        <v>289</v>
+      </c>
+      <c r="M26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A27" s="54"/>
+      <c r="C27" t="s">
         <v>276</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>278</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>282</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K27" t="s">
         <v>290</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="78" x14ac:dyDescent="0.15">
+      <c r="A28" s="54"/>
+      <c r="E28" t="s">
+        <v>279</v>
+      </c>
+      <c r="G28" t="s">
+        <v>283</v>
+      </c>
+      <c r="K28" t="s">
         <v>291</v>
       </c>
-      <c r="M25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="C26" t="s">
-        <v>277</v>
-      </c>
-      <c r="E26" t="s">
-        <v>279</v>
-      </c>
-      <c r="G26" t="s">
-        <v>283</v>
-      </c>
-      <c r="K26" t="s">
-        <v>292</v>
-      </c>
-      <c r="M26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="78" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="E27" t="s">
-        <v>280</v>
-      </c>
-      <c r="G27" t="s">
+    </row>
+    <row r="29" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="A29" s="54"/>
+      <c r="G29" t="s">
         <v>284</v>
       </c>
-      <c r="K27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="26" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
-      <c r="G28" t="s">
+      <c r="K29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="78" x14ac:dyDescent="0.15">
+      <c r="A30" s="54"/>
+      <c r="G30" t="s">
         <v>285</v>
       </c>
-      <c r="K28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="78" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
-      <c r="G29" t="s">
+    </row>
+    <row r="31" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="A31" s="54"/>
+      <c r="G31" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="26" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="G30" t="s">
+    <row r="32" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A32" s="54"/>
+      <c r="G32" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A31" s="37"/>
-      <c r="G31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A32" s="37"/>
-      <c r="G32" t="s">
-        <v>289</v>
+    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+      <c r="A33" s="54"/>
+      <c r="G33" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="fLY9WZlC17IWSxiq4bVW57G3Ux6DbqiFHFMr8dR1tqziQP0V1V5U7kW8uD9V8UG0QHuoAnLcsoxdc9LORvaXNA==" saltValue="DAkpy7/FOUGIpaQtwyT9fA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="A4:A23"/>
+    <mergeCell ref="A25:A33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
